--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS136-001 until DPLKKPS136-002 - Kepesertaan - Proses - Verifikasi Perjanjian Kerja Sama.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS136-001 until DPLKKPS136-002 - Kepesertaan - Proses - Verifikasi Perjanjian Kerja Sama.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48F26CC-81FB-4508-9604-96F8BECB2236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EBB84-C057-4D9A-9B2F-F11C031E1694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,26 +119,26 @@
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
+No PKS : 82329777;
+Status Verifikasi : 1 : Setuju;
+Keterangan : KEP-009 disetujui</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>Username : 31816;
+Password : bni1234;
+Role : 09 - Penyelia Settlement;
 No PKS : 82329788;
 Status Verifikasi : 0 : Kembalikan ke Register;
 Keterangan : KEP-009 dikembalikan</t>
-  </si>
-  <si>
-    <t>Username : 31816;
-Password : bni1234;
-Role : 09 - Penyelia Settlement;
-No PKS : 82329777;
-Status Verifikasi : 1 : Setuju;
-Keterangan : KEP-009 disetujui</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Register</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -659,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
